--- a/MyExcelFormulaSheet.xlsx
+++ b/MyExcelFormulaSheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Public Repo\Excel-Formula-Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A764A-BCCF-4DEC-BFC7-676A96431E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BC82A-CF04-45CB-AF8F-D4D13B6E9CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SL No" sheetId="1" r:id="rId1"/>
+    <sheet name="Vlookup" sheetId="2" r:id="rId2"/>
+    <sheet name="Division" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Data Ase</t>
   </si>
@@ -101,6 +103,81 @@
   </si>
   <si>
     <t>Ref Video</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Chittaganj</t>
+  </si>
+  <si>
+    <t>Rajshahi</t>
+  </si>
+  <si>
+    <t>Rangpur</t>
+  </si>
+  <si>
+    <t>Mymensingh</t>
+  </si>
+  <si>
+    <t>Khulna</t>
+  </si>
+  <si>
+    <t>Barishal</t>
+  </si>
+  <si>
+    <t>Division Name</t>
+  </si>
+  <si>
+    <t>Division Code</t>
+  </si>
+  <si>
+    <t>DHK</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>RAJ</t>
+  </si>
+  <si>
+    <t>RAN</t>
+  </si>
+  <si>
+    <t>MYM</t>
+  </si>
+  <si>
+    <t>KHUL</t>
+  </si>
+  <si>
+    <t>BARI</t>
+  </si>
+  <si>
+    <t>Rakib</t>
+  </si>
+  <si>
+    <t>Shakib</t>
+  </si>
+  <si>
+    <t>Nokib</t>
+  </si>
+  <si>
+    <t>Jakir</t>
+  </si>
+  <si>
+    <t>Fakir</t>
+  </si>
+  <si>
+    <t>Rikir</t>
+  </si>
+  <si>
+    <t>Polin</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -132,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -762,4 +846,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B28D78B-B0D8-4822-9A3E-77A8B6150008}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>VLOOKUP(B3,Division!$A$2:$B$8,2,0)</f>
+        <v>Dhaka</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>VLOOKUP(B4,Division!$A$2:$B$8,2,0)</f>
+        <v>Chittaganj</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>VLOOKUP(B5,Division!$A$2:$B$8,2,0)</f>
+        <v>Rajshahi</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>VLOOKUP(B6,Division!$A$2:$B$8,2,0)</f>
+        <v>Rangpur</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(B7,Division!$A$2:$B$8,2,0)</f>
+        <v>Mymensingh</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>VLOOKUP(B8,Division!$A$2:$B$8,2,0)</f>
+        <v>Khulna</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>VLOOKUP(B9,Division!$A$2:$B$8,2,0)</f>
+        <v>Barishal</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D65E8-D2DD-4DD3-9496-E276B05724CC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>